--- a/testinputs/crawl_test_data.xlsx
+++ b/testinputs/crawl_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560"/>
+    <workbookView windowWidth="28800" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Crawl Input" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Project Name</t>
   </si>
@@ -58,18 +58,12 @@
     <t>Test Data For Web Form</t>
   </si>
   <si>
-    <t>Test Data For Web Elements</t>
-  </si>
-  <si>
     <t>Please fill mandatory fields</t>
   </si>
   <si>
     <t>Without enter the URL , Trade Name and Crawl Type</t>
   </si>
   <si>
-    <t>Check web crawling menu responding or not</t>
-  </si>
-  <si>
     <t>SampleText</t>
   </si>
   <si>
@@ -79,24 +73,15 @@
     <t>Enter Invalid URL and empty Trade Name</t>
   </si>
   <si>
-    <t>Check filter button responding or not</t>
-  </si>
-  <si>
     <t>www.amazon.com</t>
   </si>
   <si>
-    <t>Check filter close icon responding or not</t>
-  </si>
-  <si>
     <t>https://www.quikr.com</t>
   </si>
   <si>
     <t>Enter Valid URL and empty Trade Name</t>
   </si>
   <si>
-    <t>Check add button responding or not</t>
-  </si>
-  <si>
     <t>https://www.amazon.com</t>
   </si>
   <si>
@@ -109,25 +94,19 @@
     <t>Enter Valid URL and Invalid Trade Name</t>
   </si>
   <si>
-    <t>Check add close icon responding or not</t>
-  </si>
-  <si>
     <t>Trade name should be valid</t>
   </si>
   <si>
-    <t>More option button responding or not</t>
-  </si>
-  <si>
     <t>santos. inc,</t>
   </si>
   <si>
+    <t>Enter Valid URL and Valid Trade Name</t>
+  </si>
+  <si>
     <t>amazon</t>
   </si>
   <si>
     <t>Crawl submitted</t>
-  </si>
-  <si>
-    <t>Enter Valid URL and Valid Trade Name</t>
   </si>
 </sst>
 </file>
@@ -135,9 +114,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -197,15 +176,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,37 +223,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -264,40 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,26 +305,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,43 +341,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,25 +479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,103 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,11 +610,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,15 +660,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,32 +690,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,8 +702,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,148 +712,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,7 +1266,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1384,118 +1363,98 @@
       <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="9">
         <v>1</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="9">
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="9">
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="9">
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="9">
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="11">
         <v>67546.4</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1503,16 +1462,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1520,16 +1479,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/testinputs/crawl_test_data.xlsx
+++ b/testinputs/crawl_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Project Name</t>
   </si>
@@ -52,34 +52,76 @@
     <t>Trade Name</t>
   </si>
   <si>
+    <t>Crawl Type</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Scenerio</t>
+  </si>
+  <si>
     <t>Expected Results</t>
   </si>
   <si>
     <t>Test Data For Web Form</t>
   </si>
   <si>
+    <t>Verify Add Website with empty data</t>
+  </si>
+  <si>
     <t>Please fill mandatory fields</t>
   </si>
   <si>
-    <t>Without enter the URL , Trade Name and Crawl Type</t>
+    <t xml:space="preserve">  Without enter the URL 
+  Without enter Trade Name  
+  Without select Crawl Type
+  Without enter Address </t>
   </si>
   <si>
     <t>SampleText</t>
   </si>
   <si>
+    <t>Basic Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Add Website with Invalid URL </t>
+  </si>
+  <si>
     <t>Provide the exact URL of the website</t>
   </si>
   <si>
-    <t>Enter Invalid URL and empty Trade Name</t>
+    <t xml:space="preserve">  Enter Invalid URL 
+  Without enter Trade Name
+  Select Crawl Type
+  Without enter Address  </t>
   </si>
   <si>
     <t>www.amazon.com</t>
   </si>
   <si>
+    <t>Guindy, chennai - 600052</t>
+  </si>
+  <si>
+    <t>Verify Add Website with Invalid URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Enter Invalid URL 
+  Without enter Trade Name
+  Select Crawl Type
+  Enter Address  </t>
+  </si>
+  <si>
     <t>https://www.quikr.com</t>
   </si>
   <si>
-    <t>Enter Valid URL and empty Trade Name</t>
+    <t>Verify Add Website with Valid URL and empty trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Enter Valid URL 
+  Without enter Trade Name
+  Select Crawl Type
+  Without enter Address</t>
   </si>
   <si>
     <t>https://www.amazon.com</t>
@@ -88,25 +130,52 @@
     <t xml:space="preserve">      </t>
   </si>
   <si>
-    <t>Trade name should not be empty</t>
-  </si>
-  <si>
-    <t>Enter Valid URL and Invalid Trade Name</t>
+    <t>Verify Add Website with Valid URL and Invalid trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Enter Valid URL 
+  Invalid Trade Name
+  Select Crawl Type
+  Enter Address</t>
   </si>
   <si>
     <t>Trade name should be valid</t>
   </si>
   <si>
+    <t xml:space="preserve">  Enter Valid URL 
+  Invalid Trade Name
+  Select Crawl Type
+  Without enter Address</t>
+  </si>
+  <si>
     <t>santos. inc,</t>
   </si>
   <si>
-    <t>Enter Valid URL and Valid Trade Name</t>
-  </si>
-  <si>
-    <t>amazon</t>
+    <t xml:space="preserve">Verify Add Website with Valid URL and Trade </t>
   </si>
   <si>
     <t>Crawl submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Enter Valid URL 
+  Valid Trade Name
+  Select Crawl Type
+  Without enter Address(Optional)</t>
+  </si>
+  <si>
+    <t>https://www.eurogamer.net</t>
+  </si>
+  <si>
+    <t>Eurogamer</t>
+  </si>
+  <si>
+    <t>Verify Add Website with Valid URL ,Trade and Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Enter Valid URL 
+  Enter Valid Trade Name
+  Select Crawl Type
+  Valid Address Name</t>
   </si>
 </sst>
 </file>
@@ -114,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -184,7 +253,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -192,24 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +330,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -231,7 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,82 +366,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,109 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3F9FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,80 +600,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -610,6 +685,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -621,30 +720,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,8 +768,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,8 +777,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,142 +802,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,9 +947,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -867,32 +960,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="48" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -962,13 +1067,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1628140</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -988,7 +1093,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5577205" y="0"/>
+          <a:off x="11119485" y="0"/>
           <a:ext cx="4305300" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1263,91 +1368,110 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.4296875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="22.1875" customWidth="1"/>
-    <col min="4" max="4" width="32.9375" customWidth="1"/>
-    <col min="5" max="5" width="46.4375" customWidth="1"/>
-    <col min="6" max="6" width="40.3125" customWidth="1"/>
+    <col min="1" max="1" width="23.4296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.1875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.9375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.4375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.3125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.5" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="26.5" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="17"/>
     </row>
-    <row r="2" ht="26.5" customHeight="1" spans="1:6">
+    <row r="2" ht="26.5" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" ht="15.5" customHeight="1" spans="1:6">
+    <row r="3" ht="15.5" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="7"/>
     </row>
-    <row r="4" ht="26.5" customHeight="1" spans="1:6">
+    <row r="4" ht="26.5" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>45127</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" ht="26.5" customHeight="1" spans="1:6">
+    <row r="5" ht="26.5" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="7"/>
     </row>
-    <row r="6" ht="26.5" customHeight="1" spans="1:6">
+    <row r="6" ht="26.5" customHeight="1" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1363,143 +1487,226 @@
       <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="56" spans="1:9">
       <c r="A12" s="9">
         <v>1</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="56" spans="1:9">
       <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="56" spans="1:9">
       <c r="A14" s="9">
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="56" spans="1:9">
       <c r="A15" s="9">
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="56" spans="1:9">
       <c r="A16" s="9">
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="56" spans="1:9">
       <c r="A17" s="9">
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11">
         <v>67546.4</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="56" spans="1:9">
       <c r="A18" s="9">
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="56" spans="1:9">
       <c r="A19" s="9">
         <v>9</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>22</v>
+      <c r="B19" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D1:E6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G1:H6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId2" display="https://www.quikr.com" tooltip="https://www.quikr.com"/>
@@ -1507,7 +1714,7 @@
     <hyperlink ref="B17" r:id="rId2" display="https://www.quikr.com" tooltip="https://www.quikr.com"/>
     <hyperlink ref="B16" r:id="rId4" display="https://www.amazon.com"/>
     <hyperlink ref="B18" r:id="rId2" display="https://www.quikr.com" tooltip="https://www.quikr.com"/>
-    <hyperlink ref="B19" r:id="rId4" display="https://www.amazon.com"/>
+    <hyperlink ref="B19" r:id="rId5" display="https://www.eurogamer.net"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
